--- a/internal/tg/File/MatLab/5/ns.xlsx
+++ b/internal/tg/File/MatLab/5/ns.xlsx
@@ -1292,6 +1292,31 @@
         <v>195</v>
       </c>
     </row>
+    <row r="196">
+      <c r="A196">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200">
+        <v>200</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>